--- a/app/src/main/assets/databases/Categories.xlsx
+++ b/app/src/main/assets/databases/Categories.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8955" xr2:uid="{0A699A12-10BC-4437-8036-FB048AD2B32F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Need Videos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>Primary</t>
   </si>
@@ -291,13 +292,37 @@
   </si>
   <si>
     <t>Vertical Pull</t>
+  </si>
+  <si>
+    <t>Direct Band</t>
+  </si>
+  <si>
+    <t>Bench Press Drop</t>
+  </si>
+  <si>
+    <t>Peak Throws</t>
+  </si>
+  <si>
+    <t>Reverse GluteHam 1 Arm Otis</t>
+  </si>
+  <si>
+    <t>Reverse GluteHam 1 Arm Press</t>
+  </si>
+  <si>
+    <t>Weighted Reverse Crunches</t>
+  </si>
+  <si>
+    <t>Weighted 6 Inchers</t>
+  </si>
+  <si>
+    <t>TRX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +337,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,14 +363,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3E0F36-9E64-4617-852E-7022518F5C3D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,16 +1001,25 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
       <c r="C25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
       <c r="C26" t="s">
         <v>81</v>
       </c>
@@ -1010,4 +1063,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431D402C-32F8-4BD9-BF25-F67DD52B347D}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/src/main/assets/databases/Categories.xlsx
+++ b/app/src/main/assets/databases/Categories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -144,9 +144,6 @@
     <t>Bodyweight</t>
   </si>
   <si>
-    <t>Bosi</t>
-  </si>
-  <si>
     <t>Battle Rope</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>TRX</t>
+  </si>
+  <si>
+    <t>Bosu Ball</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3E0F36-9E64-4617-852E-7022518F5C3D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,13 +730,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -750,13 +750,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -849,57 +849,57 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,62 +910,62 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,12 +973,12 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -997,7 +997,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,58 +1005,58 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1080,32 +1080,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
